--- a/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/OutputData/Lassa/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9BD8D6-5ECF-D74A-9C68-0C289F2F5B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB3A9FD-18E0-7C4E-9D93-CAEE2ED7AE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-400" yWindow="500" windowWidth="37760" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="500" windowWidth="37760" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$38</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
   <si>
     <t>RefID</t>
   </si>
@@ -77,42 +80,6 @@
     <t>JN650518, JN650517</t>
   </si>
   <si>
-    <t>Clegg C.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Clegg C.S., Special Pathogens Reference Unit, Health Protection Agency CEPR, Porton Down, Salisbury, SP4 0JG, UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>AJ969409, AJ969408, AJ969407, AJ969406, AJ969405, AJ969404</t>
-  </si>
-  <si>
-    <t>Djavani M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pathology, University of Wisconsin, 1300 University Ave., SMI, Rm.#512, Madison, WI 53706, USA</t>
-  </si>
-  <si>
-    <t>NC_004297, U73035, U73034</t>
-  </si>
-  <si>
-    <t>Fichet-calvet E., Stephan O., Thomas S., Lamine K., Beate B., N'faly M., Stephan G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virology, Bernhard-Nocht Institute of Tropical Medicine, Bernhard-Nocht Strasse 74, Hamburg 20359, Germany</t>
-  </si>
-  <si>
-    <t>KP339133, KP339132, KP339131, KP339130, KP339129, KP339128, KP339127, KP339126, KP339125, KP339124, KP339123, KP339122, KP339121, KP339120, KP339119, KP339118, KP339117, KP339116, KP339115, KP339114, KP339113, KP339112, KP339111, KP339110, KP339109, KP339108, KP339107, KP339106, KP339105, KP339104, KP339103, KP339102, KP339101, KP339100, KP339099, KP339098, KP339097, KP339096, KP339095, KP339094, KP339093, KP339092, KP339091, KP339090, KP339089, KP339088, KP339087, KP339086, KP339085, KP339084, KP339083, KP339082, KP339081, KP339080, KP339079, KP339078, KP339077, KP339076, KP339075, KP339074, KP339073, KP339072, KP339071, KP339070, KP339069, KP339068, KP339067, KP339066, KP339065, KP339064, KP339063, KP339062, KP339061, KP339060, KP339059, KP339058, KP339057, KP339056, KP339055, KP339054, KP339053, KP339052, KP339051, KP339050</t>
-  </si>
-  <si>
-    <t>Geisbert J., Cross R., Safronetz D., Fischer R., Munster V., Feldmann H., Geisbert T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Microbiology and Immunology, University of Texas Medical Branch, 301 University Parkway, Galveston, TX 77555, USA</t>
-  </si>
-  <si>
-    <t>MW004547, MW004546</t>
-  </si>
-  <si>
     <t>Hain T.</t>
   </si>
   <si>
@@ -149,15 +116,6 @@
     <t>NCBI</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Center for Biotechnology Information, NIH, Bethesda, MD 20894, USA</t>
-  </si>
-  <si>
-    <t>NC_004296</t>
-  </si>
-  <si>
-    <t>NC_004297</t>
-  </si>
-  <si>
     <t xml:space="preserve"> One Health Institute &amp; Karen C Drayer Wildlife Health Center, School of Veterinary Medicine, University of California, Davis, 1089 Veterinary Medicine Drive, Davis, CA 95616, USA</t>
   </si>
   <si>
@@ -324,21 +282,6 @@
   </si>
   <si>
     <t>MK044799</t>
-  </si>
-  <si>
-    <t>A reverse genetics system for lassa virus</t>
-  </si>
-  <si>
-    <t>Becker-ziaja B., Golnitz U., Gunther S., Hass M., Muller S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virology, Bernhard-Nocht-Institut, Bernhard-Nocht-Strasse 74, Hamburg D-20359, Germany, Unpublished</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>AF246121</t>
   </si>
   <si>
     <t>Arenaviruses in southern african rodents</t>
@@ -962,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1041,7 +984,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1053,16 +996,16 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1074,856 +1017,712 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4">
-        <v>9281522</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>2020</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>2016</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>2024</v>
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>2004</v>
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>2002</v>
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13">
-        <v>2007</v>
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>2020</v>
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15">
-        <v>2016</v>
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <v>2016</v>
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>135</v>
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>2024</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" t="s">
-        <v>152</v>
-      </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>97</v>
-      </c>
-      <c r="B40" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>109</v>
-      </c>
-      <c r="B41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" t="s">
-        <v>140</v>
-      </c>
-      <c r="F41" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" t="s">
-        <v>164</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>103</v>
-      </c>
-      <c r="B43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>105</v>
-      </c>
-      <c r="B45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" s="3"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:G38" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+      <sortCondition ref="A1:A38"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB3A9FD-18E0-7C4E-9D93-CAEE2ED7AE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33369777-73E0-AA49-8CF2-9D463A7D9EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="500" windowWidth="37760" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="17380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Whole genome-sequencing from clinical and field samples uncovers ancient origins and intra-host evolution of lassa virus</t>
   </si>
   <si>
-    <t>Andersen K., Birren B., Ehiane P., England E., Folarin O., Garry R., Gire S., Gnirke A., Goba A., Happi C., Hensley L., Levin J., Matranga C., Momoh M., Moses L., Odia I., Sabeti P., Sealfon R., Shapiro B., Stremlau M., Winnicki S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Broad Institute, 75 Ames St, Cambridge, MA 02142, USA, Unpublished</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>A case of imported lassa fever from mali</t>
   </si>
   <si>
-    <t>Anaraki S., Atkin S., Brown D., Gopal R., Gothard P., Hand J., Morgan D., Walsh A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virus Reference Department, HPA Centre for Infections, 61 Colindale Avenue, Colindale, London NW9 5HT, United Kingdom, Euro Surveill. (2009) In press</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>Differential pathogenesis in closely related 2018 nigerian outbreak clade iii lassa virus isolates</t>
   </si>
   <si>
-    <t>Ahmad A., Akinpelu A., Albietz A., Audet J., Griffin B., Grolla A., Ihekweazu C., Kobasa D., Leung A., Mba N., Musa A., Qiu X., Safronetz D., Soule G., Sroga P., Stein D., Tierney K., Warner B.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Special Pathogens, Public Health Agency of Canada, 1015 Arlington street, Winnipeg, Manitoba R3E 3R2, Canada, Unpublished</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>A lassa virus live attenuated vaccine candidate that is safe and efficacious in guinea pigs</t>
   </si>
   <si>
-    <t>Carey B., Carlos de la torre J., Cubitt B., Geiger J., Hirsch S., Kuhn J., Martinez-sobrido L., Mehta M., Ye C., Yu S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IRF, NIH/NIAID, 8200 Research Plaza, Frederick, MD 21702, USA, Unpublished</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>Geographical dependence of genetic variability among lassa virus isolates</t>
   </si>
   <si>
-    <t>Burton J., Clegg C., Lloyd G., Silman N., Tolley H.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Clegg C.S., Special Pathogens Programme, Centre for Applied Microbiology and Research, Porton Down, Salisbury, SP4 0JG, UNITED KINGDOM, Unpublished</t>
   </si>
   <si>
@@ -233,9 +218,6 @@
     <t>Zoonotic surveillance of lassa fever virus in nigeria</t>
   </si>
   <si>
-    <t>Eromon P., Happi A., Happi C., Ogunsanya O., Oguzie J., Olumade T., Oluniyi P.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biological Sciences, Redeemer's University, Akoda, Ede, Osun 234001, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>Lassa virus from cote d'ivoire: insights into the cryptic circulation of lasv in west africa</t>
   </si>
   <si>
-    <t>Calvignac-spencer S., Du plessis L., Escalera-zamudio M., Kouadio L., Leendertz F., Matranga C., Pybus O., Theze J.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Zoology, The University of Oxford, S Parks Rd, Oxford, Oxfordshire OX1 3SY, United Kingdom, Unpublished</t>
   </si>
   <si>
@@ -263,9 +242,6 @@
     <t>Ecological investigations of the genomic diversity of lassa virus in sierra leone</t>
   </si>
   <si>
-    <t>Bangura J., Bird B., Davison A., Ghersi B., Nichols J., Vucak M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Centre for Virus Research, University of Glasgow, 464 Bearsden Rd, Bearsden, Glasgow, GLC G61 1QH, United Kingdom, Unpublished</t>
   </si>
   <si>
@@ -287,9 +263,6 @@
     <t>Arenaviruses in southern african rodents</t>
   </si>
   <si>
-    <t>Burt F., Grobbelaar A., Jardine J., Swanepoel R.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Centre for Zoonotic and Emerging Diseases (Special Viral Pathogens Laboratory), NICD, 1 Modderfontein Road, Johannesburg, Gauteng 2131, South Africa, Unpublished</t>
   </si>
   <si>
@@ -302,9 +275,6 @@
     <t>Lassa virus in host rodent mastomys natalensis within urban area n'zerekore, guinea</t>
   </si>
   <si>
-    <t>Bayandin R., Boiro M., Boumbaly S., Gladysheva A., Karan L., Korneev M., Kourouma K., Makenov M., Sako S., Shipovalov A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Molecular diagnostic and Epidemiology, Central Research Institute of Epidemiology, Novogireevskaya Str, 3A, Moscow 111123, Russia, Unpublished</t>
   </si>
   <si>
@@ -314,9 +284,6 @@
     <t>Sequence variability and geographic distribution of lassa virus in sierra leone</t>
   </si>
   <si>
-    <t>Leski T., Lin B., Moses L., Park M., Stockelman M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Center for Bio/Molecular Science and Engineering, Naval Research Laboratory, 4555 Overlook Ave, Washington, DC 20375, USA, Unpublished</t>
   </si>
   <si>
@@ -326,9 +293,6 @@
     <t>A sporadic and lethal lassa fever case in forest guinea, 2019</t>
   </si>
   <si>
-    <t>Conde S., Duraffour S., Fichet-calve E., Fichet-calvet E., Guenther S., Hinzmann J., Keita S., Kekoura I., Koivogui E., Kone M., Koropogui M., Magassouba N., N'faly magassouba N., Soropogui B.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology dpt., Bernhard Nocht Institute for Tropical Medicine, Bernhard-Nocht-Str. 74, Hamburg 20359, Germany, Viruses 12 (10), 1062 (2020)</t>
   </si>
   <si>
@@ -341,9 +305,6 @@
     <t>Lethal infection of lassa virus isolated from a human clinical sample in outbred guinea pigs without adaptation</t>
   </si>
   <si>
-    <t>Bukreyeva N., Huang C., Manning J., Maruyama J., Mateer E., Paessler S., Sattler R.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pthology, University of Texas Medical Branch, 301 university blvd, GALVESTON, TX 77555, USA, mSphere (2019) In press</t>
   </si>
   <si>
@@ -353,9 +314,6 @@
     <t>Capturing diverse microbial sequence with comprehensive and scalable probe design</t>
   </si>
   <si>
-    <t>Allen T., Balmaseda A., Barbosa-lima G., Barnes K., Bosch I., Bozza F., Brehio P., Carter A., Corleis B., Ebel G., Eromon P., Folarin O., Garcia K., Gehrke L., Gladden-young A., Gnirke A., Goba A., Goldfarb A., Grant D., Happi C., Harris E., Hennigan S., Hensley L., Isern S., Kwon D., Lin A., Lorenzana I., Matranga C., Metsky H., Michael S., Odia I., Parham L., Park D., Paul L., Piantadosi A., Qu J., Runstadler J., Sabeti P., Siddle K., Simon-loriere E., Smole S., Souza T., Tan A., Tully D., Vieira Y., Wohl S., Yang D.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Viral Genomics, IDMP, Broad Institute, 75 Ames Street, Cambridge, MA 02142, USA, Unpublished</t>
   </si>
   <si>
@@ -365,9 +323,6 @@
     <t>Lassa virus outbreak genomics and epidemiology from nigeria</t>
   </si>
   <si>
-    <t>Amao A., Barnes K., Birren B., Brehio P., Chak B., Ehaine P., Folarin O., Happi C., Mehta S., Nosamiefan I., Odia I., Oguzie J., Okokhere P., Park D., Sabeti P., Shah R., Siddle K., Winnicki S., Yozwiak N.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Infectious Disease Program, Broad Institute of Harvard and MIT, 75 Ames St, Cambridge, MA 02142, USA, Unpublished</t>
   </si>
   <si>
@@ -377,9 +332,6 @@
     <t>Nucleotide sequence variability of gpc region of lassa fever virus in 2015/2016 outbreak in nigeria</t>
   </si>
   <si>
-    <t>James A., Omilabu S., Salu O.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Biochemistry/Virology Unit- Central Research Lab., College of Medicine-University of Lagos, Block F, Idi-araba, Surulere, Lagos State 234-100254, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -392,9 +344,6 @@
     <t>Uncovering the etiology of fevers of unknown origin: a laboratory-based observational study in patients with suspected ebola, guinea, 2014</t>
   </si>
   <si>
-    <t>Drexler J., Postigo hidalgo I.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Institute of virology, Charite Universitatsmedizin Berlin, Chariteplatz 1, Berlin, Berlin 10117, Germany, Unpublished</t>
   </si>
   <si>
@@ -407,9 +356,6 @@
     <t>The pathogenic factor of lassa virus infection in guinea pigs</t>
   </si>
   <si>
-    <t>Huang C., Manning J., Maruyama J., Paessler S., Paroha R., Saito T., Taniguchi S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pathology, The University of Texas Medical Branch, 301 university blvd, Galveston, TX 77555, USA, Unpublished</t>
   </si>
   <si>
@@ -419,18 +365,12 @@
     <t>Lassa virus in pygmy mice, benin</t>
   </si>
   <si>
-    <t>Achaz A., Baptiste J., Fichet-calvet E., Gunther S., Kourouma F., Saizounou R., Yadouleton A.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Virology, Bernhard-Nocht Institute of Tropical Medicine, Bernhard-Nocht Strasse 74, Hamburg 20359, Germany, Unpublished</t>
   </si>
   <si>
     <t>MH028396, MH028397, MH028398, MH028399, MH028400, MH028401</t>
   </si>
   <si>
-    <t>Barnes K., Gerhardt D., Hensley L., Honko A., Jahrling P., Johnson J., Olinger G., Sabeti P., Sword J., Wohl S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Integrated Research Facility - Frederick, National Institute of Allergy and Infectious Diseases, National Institutes of Health, 8200 Research Plaza, Fort Detrick, MD 21702, USA</t>
   </si>
   <si>
@@ -440,9 +380,6 @@
     <t>Metagenomic sequencing at the epicenter of the nigeria 2018 lassa fever outbreak, Phylogeography of lassa virus in nigeria</t>
   </si>
   <si>
-    <t>Adomeh D., Agbukor J., Aire C., Airende M., Aiyepada J., Akhideno P., Akhilomen P., Akpede G., Akpede N., Asogun D., Atafo R., Cadar D., Carroll M., Duraffour S., Ebhodaghe P., Ebo B., Efthymiadis K., Ehichioya D., Ehikhametalor S., Ekanem A., Erameh C., Esumeh R., Formenty P., Giwa R., Gunther S., Hewson R., Hinzmann J., Hiscox J., Igenegbale G., Ighodalo Y., Ihekweazu C., Iraoyah K., Iruolagbe C., Isibor E., Kafetzopoulou L., Koenig F., Lemey P., Lorenzen S., Lumley S., Matjeschk J., Muoebonam E., Naidoo D., Odia I., Odigie G., Oestereich L., Ogbaini-emovon E., Okogbenin S., Okokhere P., Okonofua G., Okonofua M., Olokor T., Omiumu R., Omomoh E., Osiemi B., Oyakhilome J., Pahlmann M., Pullan S., Rafiu M., Rieger T., Schachten D., Suchard M., Thielebein A., Tobin E., Ukpetena R., Vipond R., Wozniak D., Yerumoh E.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Virology, Bernhard-Nocht-Institute for Tropical Medicine, Bernhard-Nocht-Str. 74, Hamburg 20359, Germany, Unpublished</t>
   </si>
   <si>
@@ -452,9 +389,6 @@
     <t>Metagenomics identifies emerging and re-emerging viruses in nigerian cohorts with acute febrile illnesses, including pathogens of global concern</t>
   </si>
   <si>
-    <t>Abejegah C., Adedosu N., Adewale-fasoro O., Airende M., Aiyepada J., Ajayi N., Ayodeji O., Blessing O., Edamhande A., Eromon P., Folarin O., Frost S., Gbemisola O., Happi C., Ifoga P., Ihekweazu C., Jackson E., Komolafe I., Mehta S., Nair P., Odia I., Ogah O., Oguzie J., Ojide K., Okogbenin S., Okokhere P., Oluniyi P., Oyejide N., Pastusiak A., Petros B., Qu J., Sabeti P., Siddle K., Stenson L., Tomkins-tinch C., Uyigue E.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Biological Sciences, African Centre of Excellence for Genomics of Infectious Diseases(ACEGID), Redeemer's University, Akoda, Ede, Osun 23401, Nigeria,  Biological Sciences, Redeemer's University, Akoda junction, Ede, Osun 23401, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -464,9 +398,6 @@
     <t>A case of lassa fever virus outbreak in ebonyi and lagos states, nigeria. 2013, A case of lassa fever virus outbreak in enugu state, nigeria</t>
   </si>
   <si>
-    <t>James A., Omilabu S., Orenolu M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Department of Biochemistry/Virology Unit- Central Research Lab, College of Medicine-University of Lagos, Block F, Idi-araba, Surulere, Lagos State 234-100254, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -476,9 +407,6 @@
     <t>Lassa virus diversity in liberia</t>
   </si>
   <si>
-    <t>Albarino C., Bolay F., Chitty J., Davis W., Fakoli L., Palacios G., Patel K., Prieto K., Reyes D., Stroher U., Welch S., Wiley M.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Center for Genome Sciences, United States Army Medical Research Institute of Infectious Diseases (USAMRIID), 1425 Porter Street, Ft Detrick, MD 21702, USA,  Viral Special Pathogens Branch, Centers for Disease Control and Prevention, 1600 Clifton Rd. NE, Atlanta, GA 30333, USA, Unpublished</t>
   </si>
   <si>
@@ -488,9 +416,6 @@
     <t>Lassa virus infection of non-rodent hosts in nigeria</t>
   </si>
   <si>
-    <t>Achonduh-atijegbe O., Adedokun O., Adeyemo A., Akano K., Akinwale E., Amare M., Ayinla A., Broach E., Collins N., Daodu R., Eller L., Fouapon A., Happi A., Happi C., Iroezindu M., Lay J., Lombardi K., Mccauley M., Mebrahtu T., Modjarrad K., Nosamiefan I., Nwofoke C., Ogunsanya O., Okolie J., Parker E., Parker Z., Prins P., Print P., Saibu F., Sharon D., Sharon S., Sijuwola A., Tiamiyu A., Tucker C., Vasan S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> African Center of Excellence for Genomics of Infectious Diseases, Redeemer's University, Redeemer's University, Ede, Osun PMB230, Nigeria, Unpublished</t>
   </si>
   <si>
@@ -500,13 +425,88 @@
     <t>Genomic characterization of clinical lassa virus isolates from 2017-2023 transmission seasons in sierra leone</t>
   </si>
   <si>
-    <t>Alhasan F., Andersen K., Baimba F., Francis B., Garry R., Grant D., Happi C., Jalloh A., Kallon T., Kamara M., Kanneh L., Momoh M., Park D., Sabeti P., Samuels R., Sandi J., Schefflien J., Schieffelin J., Siddle K., Tomkins-tinch C., Wohl S.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Kenema Government Hospital, Viral Hemorrhagic Fever (Vhf) Laborarory, Combema Road, Kenema, Eastern Regon, Sierra Leone,  Laboratory, Kenema Government Hospital, viral hemorrhagic fever (VHF) Laborarory, Combema road, Kenema, Eastern Province, Sierra Leone,  Viral Hemorrhagic Fever (VHF) Laborarory, Kenema Government Hospital, Combema Road, Kenema, Sierra Leone, Unpublished</t>
   </si>
   <si>
     <t>OQ919498, OQ919499, OQ919500, OQ919501, OQ919502, OQ919503, OQ919504, OQ919505, OQ919506, OQ919507, OQ919508, OQ919509, OQ919510, OQ919511, OQ919512, OQ919513, OQ919514, OQ919515, OQ919516, OQ919517, OQ919518, OQ919519, OQ919520, OR041676, OR041677, OR041678, OR041679, OR041680, OR041681, OR041682, OR041683, OR041684, OR041685, OR041686, OR041687, OR113004, OR113005, OR113006, OR113007, OR113008</t>
+  </si>
+  <si>
+    <t>Clegg C., Tolley H., Burton J., Silman N., Lloyd G., Clegg C.</t>
+  </si>
+  <si>
+    <t>Atkin S., Hand J., Anaraki S., Gothard P., Walsh A., Gopal R., Gopal R., Morgan D., Brown D.</t>
+  </si>
+  <si>
+    <t>Jardine J., Burt F., Grobbelaar A., Swanepoel R.</t>
+  </si>
+  <si>
+    <t>Omilabu S., Orenolu M., James A.</t>
+  </si>
+  <si>
+    <t>Leski T., Stockelman M., Moses L., Park M., Lin B.</t>
+  </si>
+  <si>
+    <t>Andersen K., Shapiro B., Matranga C., Gire S., Sealfon R., England E., Winnicki S., Moses L., Stremlau M., Folarin O., Odia I., Ehiane P., Goba A., Momoh M., Gnirke A., Birren B., Hensley L., Levin J., Happi C., Garry R., Sabeti P.</t>
+  </si>
+  <si>
+    <t>Gerhardt D., Honko A., Sword J., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Hensley L., Wohl S., Barnes K., Sabeti P., Olinger G., Jahrling P., Johnson J., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Honko A., Sword J.</t>
+  </si>
+  <si>
+    <t>Omilabu S., Salu O., James A.</t>
+  </si>
+  <si>
+    <t>Welch S., Wiley M., Davis W., Patel K., Albarino C., Prieto K., Reyes D., Chitty J., Fakoli L., Bolay F., Stroher U., Palacios G.</t>
+  </si>
+  <si>
+    <t>Yadouleton A., Achaz A., Kourouma F., Saizounou R., Baptiste J., Gunther S., Fichet-calvet E.</t>
+  </si>
+  <si>
+    <t>Odia I., Ehaine P., Oguzie J., Siddle K., Mehta S., Barnes K., Winnicki S., Brehio P., Shah R., Chak B., Yozwiak N., Amao A., Nosamiefan I., Birren B., Park D., Folarin O., Okokhere P., Sabeti P., Happi C.</t>
+  </si>
+  <si>
+    <t>Karan L., Makenov M., Korneev M., Boumbaly S., Kourouma K., Bayandin R., Gladysheva A., Shipovalov A., Boiro M., Sako S.</t>
+  </si>
+  <si>
+    <t>Ehichioya D., Kafetzopoulou L., Lemey P., Rieger T., Cadar D., Ogbaini-emovon E., Okogbenin S., Asogun D., Pullan S., Lemey P., Suchard M., Pahlmann M., Thielebein A., Hinzmann J., Oestereich L., Wozniak D., Efthymiadis K., Schachten D., Koenig F., Matjeschk J., Lorenzen S., Lumley S., Ighodalo Y., Adomeh D., Olokor T., Omomoh E., Omiumu R., Agbukor J., Ebo B., Aiyepada J., Ebhodaghe P., Osiemi B., Ehikhametalor S., Akhilomen P., Airende M., Esumeh R., Muoebonam E., Giwa R., Ekanem A., Igenegbale G., Odigie G., Okonofua G., Ukpetena R., Oyakhilome J., Yerumoh E., Odia I., Aire C., Okonofua M., Atafo R., Tobin E., Asogun D., Akpede N., Okokhere P., Rafiu M., Iraoyah K., Iruolagbe C., Akhideno P., Erameh C., Akpede G., Isibor E., Naidoo D., Hewson R., Hiscox J., Vipond R., Carroll M., Ihekweazu C., Formenty P., Okogbenin S., Ogbaini-emovon E., Gunther S., Duraffour S., Ehichioya D.</t>
+  </si>
+  <si>
+    <t>Metsky H., Siddle K., Gladden-young A., Qu J., Yang D., Brehio P., Goldfarb A., Piantadosi A., Wohl S., Carter A., Lin A., Barnes K., Tully D., Corleis B., Hennigan S., Barbosa-lima G., Vieira Y., Paul L., Tan A., Garcia K., Parham L., Odia I., Eromon P., Folarin O., Goba A., Simon-loriere E., Hensley L., Balmaseda A., Harris E., Kwon D., Allen T., Runstadler J., Smole S., Bozza F., Souza T., Isern S., Michael S., Lorenzana I., Gehrke L., Bosch I., Ebel G., Grant D., Happi C., Park D., Gnirke A., Sabeti P., Matranga C.</t>
+  </si>
+  <si>
+    <t>Escalera-zamudio M., Kouadio L., Matranga C., Du plessis L., Theze J., Pybus O., Calvignac-spencer S., Leendertz F.</t>
+  </si>
+  <si>
+    <t>Maruyama J., Manning J., Mateer E., Sattler R., Bukreyeva N., Huang C., Paessler S.</t>
+  </si>
+  <si>
+    <t>Magassouba N., N'faly magassouba N., Koivogui E., Conde S., Kone M., Koropogui M., Soropogui B., Kekoura I., Hinzmann J., Guenther S., Keita S., Duraffour S., Koropogui M., Soropogui B., Kekoura I., Hinzmann J., Guenther S., Keita S., Duraffour S., Fichet-calvet E., Fichet-calve E.</t>
+  </si>
+  <si>
+    <t>Audet J., Stein D., Leung A., Warner B., Soule G., Sroga P., Griffin B., Grolla A., Tierney K., Albietz A., Kobasa D., Musa A., Ahmad A., Akinpelu A., Mba N., Qiu X., Ihekweazu C., Stein D., Safronetz D.</t>
+  </si>
+  <si>
+    <t>Ghersi B., Vucak M., Nichols J., Bangura J., Bird B., Davison A.</t>
+  </si>
+  <si>
+    <t>Eromon P., Ogunsanya O., Oluniyi P., Olumade T., Oguzie J., Happi A., Happi C.</t>
+  </si>
+  <si>
+    <t>Oguzie J., Petros B., Oluniyi P., Mehta S., Eromon P., Adewale-fasoro O., Ifoga P., Odia I., Pastusiak A., Gbemisola O., Aiyepada J., Uyigue E., Edamhande A., Blessing O., Airende M., Nair P., Tomkins-tinch C., Qu J., Stenson L., Oyejide N., Ajayi N., Ojide K., Ogah O., Abejegah C., Adedosu N., Ayodeji O., Okogbenin S., Okokhere P., Folarin O., Komolafe I., Ihekweazu C., Frost S., Jackson E., Siddle K., Sabeti P., Happi C.</t>
+  </si>
+  <si>
+    <t>Postigo hidalgo I., Drexler J.</t>
+  </si>
+  <si>
+    <t>Sandi J., Momoh M., Jalloh A., Kamara M., Kallon T., Baimba F., Samuels R., Wohl S., Alhasan F., Kanneh L., Park D., Siddle K., Schefflien J., Sabeti P., Garry R., Andersen K., Happi C., Momoh M., Jalloh A., Kamara M., Kallon T., Baimba F., Samuels R., Wohl S., Alhasan F., Kanneh L., Park D., Siddle K., Schieffelin J., Sabeti P., Garry R., Andersen K., Happi C., Momoh M., Jalloh A., Kamara M., Kallon T., Francis B., Samuels R., Wohl S., Alhasan F., Kanneh L., Park D., Tomkins-tinch C., Siddle K., Schefflien J., Sabeti P., Garry R., Andersen K., Happi C., Grant D.</t>
+  </si>
+  <si>
+    <t>Happi A., Ogunsanya O., Ayinla A., Sijuwola A., Akano K., Saibu F., Nwofoke C., Achonduh-atijegbe O., Daodu R., Adedokun O., Adeyemo A., Parker Z., Parker E., Mccauley M., Eller L., Tiamiyu A., Iroezindu M., Akinwale E., Mebrahtu T., Lombardi K., Broach E., Prins P., Lay J., Amare M., Nosamiefan I., Okolie J., Modjarrad K., Collins N., Vasan S., Tucker C., Fouapon A., Sharon D., Ogunsanya O., Ayinla A., Sijuwola A., Akano K., Saibu F., Nwofoke C., Achonduh-atijegbe O., Daodu R., Adedokun O., Adeyemo A., Parker Z., Parker E., Mccauley M., Eller L., Tiamiyu A., Iroezindu M., Akinwale E., Mebrahtu T., Lombardi K., Broach E., Prins P., Lay J., Amare M., Nosamiefan I., Okolie J., Modjarrad K., Collins N., Vasan S., Tucker C., Fouapon A., Sharon S., Ogunsanya O., Ayinla A., Sijuwola A., Akano K., Saibu F., Nwofoke C., Achonduh-atijegbe O., Daodu R., Adedokun O., Adeyemo A., Parker Z., Parker E., Mccauley M., Eller L., Tiamiyu A., Iroezindu M., Akinwale E., Mebrahtu T., Lombardi K., Broach E., Print P., Lay J., Amare M., Nosamiefan I., Okolie J., Modjarrad K., Collins N., Vasan S., Tucker C., Fouapon A., Sharon D., Happi C.</t>
+  </si>
+  <si>
+    <t>Taniguchi S., Saito T., Paroha R., Manning J., Huang C., Paessler S., Maruyama J.</t>
+  </si>
+  <si>
+    <t>Carey B., Yu S., Geiger J., Ye C., Mehta M., Hirsch S., Cubitt B., Martinez-sobrido L., Carlos de la torre J., Kuhn J.</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C2" sqref="C2:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -963,7 +963,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1026,694 +1026,694 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2004</v>
+        <v>2024</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2020</v>
+        <v>2004</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>2016</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
       <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35">
-        <v>2024</v>
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G38" s="3"/>
     </row>

--- a/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33369777-73E0-AA49-8CF2-9D463A7D9EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D8A14-F6B6-6E4E-A7B2-C60C2CF676E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="17380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
   <si>
     <t>RefID</t>
   </si>
@@ -371,12 +371,6 @@
     <t>MH028396, MH028397, MH028398, MH028399, MH028400, MH028401</t>
   </si>
   <si>
-    <t xml:space="preserve"> Integrated Research Facility - Frederick, National Institute of Allergy and Infectious Diseases, National Institutes of Health, 8200 Research Plaza, Fort Detrick, MD 21702, USA</t>
-  </si>
-  <si>
-    <t>KY425626, KY425628, KY425632, KY425634, KY425635, KY425638, KY425640, KY425641, KY425642, KY425643, KY425650, KY425651</t>
-  </si>
-  <si>
     <t>Metagenomic sequencing at the epicenter of the nigeria 2018 lassa fever outbreak, Phylogeography of lassa virus in nigeria</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
   </si>
   <si>
     <t>Andersen K., Shapiro B., Matranga C., Gire S., Sealfon R., England E., Winnicki S., Moses L., Stremlau M., Folarin O., Odia I., Ehiane P., Goba A., Momoh M., Gnirke A., Birren B., Hensley L., Levin J., Happi C., Garry R., Sabeti P.</t>
-  </si>
-  <si>
-    <t>Gerhardt D., Honko A., Sword J., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Hensley L., Wohl S., Barnes K., Sabeti P., Olinger G., Jahrling P., Johnson J., Wohl S., Barnes K., Sabeti P., Hensley L., Olinger G., Jahrling P., Honko A., Sword J.</t>
   </si>
   <si>
     <t>Omilabu S., Salu O., James A.</t>
@@ -905,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C38"/>
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -942,379 +933,379 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2021</v>
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>2004</v>
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>2004</v>
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>2020</v>
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>2016</v>
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10">
-        <v>2016</v>
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>2016</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>2016</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>2016</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1341,386 +1332,365 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
         <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>2020</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>2021</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
         <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E34" t="s">
         <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>2024</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>88</v>
-      </c>
-      <c r="B38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G37" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G38" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
-      <sortCondition ref="A1:A38"/>
+  <autoFilter ref="A1:G37" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
+      <sortCondition ref="F1:F37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327D8A14-F6B6-6E4E-A7B2-C60C2CF676E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A598FF7-64C9-4A40-A060-7221714D491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="17380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,45 +68,30 @@
     <t xml:space="preserve"> MRC Centre for Virus Research, University of Glasgow, 464 Bearsden road, Glasgow G61 1QH, United Kingdom</t>
   </si>
   <si>
-    <t>OL774863, OL774862, OL774861, OL774860, OL774859, OL774858, OL774857, OL774856</t>
-  </si>
-  <si>
     <t>Bjornson-hooper Z., Gire S., Honko A., Sabeti P., Hensley L.</t>
   </si>
   <si>
     <t xml:space="preserve"> Virology, United States Army Medical Research Institute for Infectious Diseases, 1425 Porter St, Frederick, MD 21702, USA</t>
   </si>
   <si>
-    <t>JN650518, JN650517</t>
-  </si>
-  <si>
     <t>Hain T.</t>
   </si>
   <si>
     <t xml:space="preserve"> Institute for Medical Microbiology, NGS core facility, Justus-Liebig-University, Institute for Medical Microbiology, Schuberttrasse 81, 35392 Giessen, Hessia, 35392, Germany</t>
   </si>
   <si>
-    <t>LT601602, LT601601</t>
-  </si>
-  <si>
     <t>Hajjaj A., Chain P., Do L., Smith K., Imbro P., Malfatti S.</t>
   </si>
   <si>
     <t xml:space="preserve"> Viral Sequencing Group, Lawrence Livermore National Laboratory, 7000 East Avenue, Livermore, CA 94550, USA</t>
   </si>
   <si>
-    <t>AY628208, AY628207, AY628206, AY628205, AY628204, AY628203, AY628202, AY628201, AY628200</t>
-  </si>
-  <si>
     <t>Happi A., Ogunsanya O., Sijuwola A., Saibu F., Akano K., Ayinla A., Nwofoke C., Daodu R., Adedokun O., Fadele J., Elias O., Ogundana K., Lawal O., Adelabu A., Nosamiefan I., Okolie J., Parker Z., Mccauley M., Lombardi K., Eller L., Broach E., Prins P., Parker E., Page B., Heeney J., Modjarrad K., Collins N., Vasan S., Happi C.</t>
   </si>
   <si>
     <t xml:space="preserve"> ACEGID, Redeemers University, Ede, Osun PMB230, Nigeria</t>
   </si>
   <si>
-    <t>PP431209, PP431200, PP431195, PP431181, PP431176, PP431156, PP431211, PP431208, PP431205, PP431204, PP431203, PP431198, PP431196, PP431194, PP431187, PP431185, PP431183, PP431173, PP431167, PP431165, PP431162, PP431160, PP431155</t>
-  </si>
-  <si>
     <t>Jahrling P., Geisbert J., Ibrahim M.</t>
   </si>
   <si>
@@ -119,27 +104,18 @@
     <t xml:space="preserve"> One Health Institute &amp; Karen C Drayer Wildlife Health Center, School of Veterinary Medicine, University of California, Davis, 1089 Veterinary Medicine Drive, Davis, CA 95616, USA</t>
   </si>
   <si>
-    <t>MW007355, MW007354, MW007353, MW007352, MW007351</t>
-  </si>
-  <si>
     <t>Rieger T., Cadar D., Schmidt-chanasit J., Gunther S.</t>
   </si>
   <si>
     <t xml:space="preserve"> WHO Collaborating Centre for Arboviruses and Hemorrhagic Fever Reference and Research, Bernhard Nocht Institute for Tropical Medicine, Bernhard-Nocht-Str. 74, Hamburg 20359, Germany</t>
   </si>
   <si>
-    <t>KU961972, KU961972, KU961972, KU961971</t>
-  </si>
-  <si>
     <t>Rossi S., Guerbois M., Forrester N., Ksiazek T., Lin D., Hari K., Weaver S.</t>
   </si>
   <si>
     <t xml:space="preserve"> Microbiology and Immunology, University of Texas Medical Branch, 301 University Boulevard, Galveston, TX 77555, USA</t>
   </si>
   <si>
-    <t>KU978807, KU978808, KU978810, KU978809, KU978811, KU978812</t>
-  </si>
-  <si>
     <t>Whole genome-sequencing from clinical and field samples uncovers ancient origins and intra-host evolution of lassa virus</t>
   </si>
   <si>
@@ -498,6 +474,30 @@
   </si>
   <si>
     <t>Carey B., Yu S., Geiger J., Ye C., Mehta M., Hirsch S., Cubitt B., Martinez-sobrido L., Carlos de la torre J., Kuhn J.</t>
+  </si>
+  <si>
+    <t>OL774856, OL774857, OL774858, OL774859, OL774860, OL774861, OL774862, OL774863</t>
+  </si>
+  <si>
+    <t>JN650517, JN650518</t>
+  </si>
+  <si>
+    <t>LT601601, LT601602</t>
+  </si>
+  <si>
+    <t>AY628200, AY628201, AY628202, AY628203, AY628204, AY628205, AY628206, AY628207, AY628208</t>
+  </si>
+  <si>
+    <t>PP431155, PP431156, PP431160, PP431162, PP431165, PP431167, PP431173, PP431176, PP431181, PP431183, PP431185, PP431187, PP431194, PP431195, PP431196, PP431198, PP431200, PP431203, PP431204, PP431205, PP431208, PP431209, PP431211</t>
+  </si>
+  <si>
+    <t>MW007351, MW007352, MW007353, MW007354, MW007355</t>
+  </si>
+  <si>
+    <t>KU961971, KU961972</t>
+  </si>
+  <si>
+    <t>KU978807, KU978808, KU978809, KU978810, KU978811, KU978812</t>
   </si>
 </sst>
 </file>
@@ -899,7 +899,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+      <selection activeCell="F2" sqref="F2:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -933,229 +933,229 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>2021</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2004</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>2011</v>
+        <v>2024</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>2004</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2020</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2016</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="E11">
-        <v>2016</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>32</v>
-      </c>
-      <c r="E12">
-        <v>2016</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -1164,148 +1164,148 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>2016</v>
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1314,383 +1314,383 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>2020</v>
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>2021</v>
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35">
-        <v>2024</v>
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="G37" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G37" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
-      <sortCondition ref="F1:F37"/>
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A598FF7-64C9-4A40-A060-7221714D491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE7446-C416-9848-A2A1-3203DAF06AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="500" windowWidth="17380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19300" yWindow="500" windowWidth="17380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="140">
   <si>
     <t>RefID</t>
   </si>
@@ -80,24 +80,12 @@
     <t xml:space="preserve"> Institute for Medical Microbiology, NGS core facility, Justus-Liebig-University, Institute for Medical Microbiology, Schuberttrasse 81, 35392 Giessen, Hessia, 35392, Germany</t>
   </si>
   <si>
-    <t>Hajjaj A., Chain P., Do L., Smith K., Imbro P., Malfatti S.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Viral Sequencing Group, Lawrence Livermore National Laboratory, 7000 East Avenue, Livermore, CA 94550, USA</t>
-  </si>
-  <si>
     <t>Happi A., Ogunsanya O., Sijuwola A., Saibu F., Akano K., Ayinla A., Nwofoke C., Daodu R., Adedokun O., Fadele J., Elias O., Ogundana K., Lawal O., Adelabu A., Nosamiefan I., Okolie J., Parker Z., Mccauley M., Lombardi K., Eller L., Broach E., Prins P., Parker E., Page B., Heeney J., Modjarrad K., Collins N., Vasan S., Happi C.</t>
   </si>
   <si>
     <t xml:space="preserve"> ACEGID, Redeemers University, Ede, Osun PMB230, Nigeria</t>
   </si>
   <si>
-    <t>Jahrling P., Geisbert J., Ibrahim M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Viral Genomics Group, USAMRIID, Fort Detrick, MD 21702, USA</t>
-  </si>
-  <si>
     <t>NCBI</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
     <t xml:space="preserve"> Broad Institute, 75 Ames St, Cambridge, MA 02142, USA, Unpublished</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>KM821772, KM821773, KM821774, KM821775, KM821776, KM821777, KM821778, KM821779, KM821780, KM821781, KM821782, KM821783, KM821784, KM821785, KM821786, KM821787, KM821788, KM821789, KM821790, KM821791, KM821792, KM821793, KM821794, KM821795, KM821796, KM821797, KM821798, KM821799, KM821800, KM821801, KM821802, KM821803, KM821804, KM821805, KM821806, KM821807, KM821808, KM821809, KM821810, KM821811, KM821812, KM821813, KM821814, KM821815, KM821816, KM821817, KM821818, KM821819, KM821820, KM821821, KM821822, KM821823, KM821824, KM821825, KM821826, KM821827, KM821828, KM821829, KM821830, KM821831, KM821832, KM821833, KM821834, KM821835, KM821836, KM821837, KM821838, KM821839, KM821840, KM821841, KM821842, KM821843, KM821844, KM821845, KM821846, KM821847, KM821848, KM821849, KM821850, KM821851, KM821852, KM821853, KM821854, KM821855, KM821856, KM821857, KM821858, KM821859, KM821860, KM821861, KM821862, KM821863, KM821864, KM821865, KM821866, KM821867, KM821868, KM821869, KM821870, KM821871, KM821872, KM821873, KM821874, KM821875, KM821876, KM821877, KM821878, KM821879, KM821880, KM821881, KM821882, KM821883, KM821884, KM821885, KM821886, KM821887, KM821888, KM821889, KM821890, KM821891, KM821892, KM821893, KM821894, KM821895, KM821896, KM821897, KM821898, KM821899, KM821900, KM821901, KM821902, KM821903, KM821904, KM821905, KM821906, KM821907, KM821908, KM821909, KM821910, KM821911, KM821912, KM821913, KM821914, KM821915, KM821916, KM821917, KM821918, KM821919, KM821920, KM821921, KM821922, KM821923, KM821924, KM821925, KM821926, KM821927, KM821928, KM821929, KM821930, KM821931, KM821932, KM821933, KM821934, KM821935, KM821936, KM821937, KM821938, KM821939, KM821940, KM821941, KM821942, KM821943, KM821944, KM821945, KM821946, KM821947, KM821948, KM821949, KM821950, KM821951, KM821952, KM821953, KM821954, KM821955, KM821956, KM821957, KM821958, KM821959, KM821960, KM821961, KM821962, KM821963, KM821964, KM821965, KM821966, KM821967, KM821968, KM821969, KM821970, KM821971, KM821972, KM821973, KM821974, KM821975, KM821976, KM821977, KM821978, KM821979, KM821980, KM821981, KM821982, KM821983, KM821984, KM821985, KM821986, KM821987, KM821988, KM821989, KM821990, KM821991, KM821992, KM821993, KM821994, KM821995, KM821996, KM821997, KM821998, KM821999, KM822000, KM822001, KM822002, KM822003, KM822004, KM822005, KM822006, KM822007, KM822008, KM822009, KM822010, KM822011, KM822012, KM822013, KM822014, KM822015, KM822016, KM822017, KM822018, KM822019, KM822020, KM822021, KM822022, KM822023, KM822024, KM822025, KM822026, KM822027, KM822028, KM822029, KM822030, KM822031, KM822032, KM822033, KM822034, KM822035, KM822036, KM822037, KM822038, KM822039, KM822040, KM822041, KM822042, KM822043, KM822044, KM822045, KM822046, KM822047, KM822048, KM822049, KM822050, KM822051, KM822052, KM822053, KM822054, KM822055, KM822056, KM822057, KM822058, KM822059, KM822060, KM822061, KM822062, KM822063, KM822064, KM822065, KM822066, KM822067, KM822068, KM822069, KM822070, KM822071, KM822072, KM822073, KM822074, KM822075, KM822076, KM822077, KM822078, KM822079, KM822080, KM822081, KM822082, KM822083, KM822084, KM822085, KM822086, KM822087, KM822088, KM822089, KM822090, KM822091, KM822092, KM822093, KM822094, KM822095, KM822096, KM822097, KM822098, KM822099, KM822100, KM822101, KM822102, KM822103, KM822104, KM822105, KM822106, KM822107, KM822108, KM822109, KM822110, KM822111, KM822112, KM822113, KM822114, KM822115, KM822116, KM822117, KM822118, KM822119, KM822120, KM822121, KM822122, KM822123, KM822124, KM822125, KM822126, KM822127, KM822128, KM822129, KM822130, KM822131, KM822132</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t xml:space="preserve"> Virus Reference Department, HPA Centre for Infections, 61 Colindale Avenue, Colindale, London NW9 5HT, United Kingdom, Euro Surveill. (2009) In press</t>
   </si>
   <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>FJ824031</t>
   </si>
   <si>
@@ -146,9 +128,6 @@
     <t xml:space="preserve"> Special Pathogens, Public Health Agency of Canada, 1015 Arlington street, Winnipeg, Manitoba R3E 3R2, Canada, Unpublished</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>MZ169790, MZ169791, MZ169792, MZ169793, MZ169794, MZ169795, MZ169796, MZ169797, MZ169798, MZ169799</t>
   </si>
   <si>
@@ -161,9 +140,6 @@
     <t xml:space="preserve"> Bundeswehr Institute of Microbiology, Neuherbergstr. 11, Munich, Bavaria 80937, Germany, Unpublished</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>MH473586, MH473587</t>
   </si>
   <si>
@@ -173,9 +149,6 @@
     <t xml:space="preserve"> IRF, NIH/NIAID, 8200 Research Plaza, Frederick, MD 21702, USA, Unpublished</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>PQ421570, PQ421571</t>
   </si>
   <si>
@@ -185,9 +158,6 @@
     <t xml:space="preserve"> Clegg C.S., Special Pathogens Programme, Centre for Applied Microbiology and Research, Porton Down, Salisbury, SP4 0JG, UNITED KINGDOM, Unpublished</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>AJ310764</t>
   </si>
   <si>
@@ -197,9 +167,6 @@
     <t xml:space="preserve"> Biological Sciences, Redeemer's University, Akoda, Ede, Osun 234001, Nigeria, Unpublished</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>ON569369, ON569371, ON569373, ON569375, ON569377, ON569379</t>
   </si>
   <si>
@@ -209,9 +176,6 @@
     <t xml:space="preserve"> Zoology, The University of Oxford, S Parks Rd, Oxford, Oxfordshire OX1 3SY, United Kingdom, Unpublished</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>MK656390, MK656391, MK656392, MK656393, MK656394, MK656395, MK656396, MK656397, MK656398, MK656399, MK656400, MK656401, MK656402, MK656403, MK656404, MK656405, MK656406, MK656407, MK656408, MK656409, MK656410, MK656411, MK656412, MK656413, MK656414, MK656415, MK656416, MK656417, MK656418, MK656419, MK656420, MK656421, MK656422, MK656423, MK656424, MK656425, MK656426, MK656427, MK656428, MK656429, MK656430, MK656431, MK656432, MK656433, MK656434, MK656435, MK656436, MK656437, MK656438, MK656439, MK656440, MK656441</t>
   </si>
   <si>
@@ -242,9 +206,6 @@
     <t xml:space="preserve"> Centre for Zoonotic and Emerging Diseases (Special Viral Pathogens Laboratory), NICD, 1 Modderfontein Road, Johannesburg, Gauteng 2131, South Africa, Unpublished</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
     <t>KF926390</t>
   </si>
   <si>
@@ -272,9 +233,6 @@
     <t xml:space="preserve"> Virology dpt., Bernhard Nocht Institute for Tropical Medicine, Bernhard-Nocht-Str. 74, Hamburg 20359, Germany, Viruses 12 (10), 1062 (2020)</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>MT861993, MT861994</t>
   </si>
   <si>
@@ -311,9 +269,6 @@
     <t xml:space="preserve"> Department of Biochemistry/Virology Unit- Central Research Lab., College of Medicine-University of Lagos, Block F, Idi-araba, Surulere, Lagos State 234-100254, Nigeria, Unpublished</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>MF317932, MF317933, MF317934, MF317935, MF317936, MF317937, MF317938, MF317939, MF317940, MF317941, MF317942, MF317943, MF317944, MF317945, MF317946</t>
   </si>
   <si>
@@ -323,9 +278,6 @@
     <t xml:space="preserve"> Institute of virology, Charite Universitatsmedizin Berlin, Chariteplatz 1, Berlin, Berlin 10117, Germany, Unpublished</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>OQ889555</t>
   </si>
   <si>
@@ -498,6 +450,12 @@
   </si>
   <si>
     <t>KU978807, KU978808, KU978809, KU978810, KU978811, KU978812</t>
+  </si>
+  <si>
+    <t>Hajjaj A., Jahrling P., Chain P., Do L., Smith K., Imbro P., Geisbert J., Malfatti S., Ibrahim M.</t>
+  </si>
+  <si>
+    <t>Viral Genomics Group, USAMRIID, Fort Detrick, MD 21702, USA, Viral Sequencing Group, Lawrence Livermore National Laboratory, 7000 East Avenue, Livermore, CA 94550, USA</t>
   </si>
 </sst>
 </file>
@@ -593,7 +551,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F37"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -933,766 +893,774 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="E3">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="3"/>
+        <v>133</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="G4" s="4">
+        <v>19317988</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="G8" s="4">
+        <v>25811712</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="4">
+        <v>26276630</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>2016</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="G10" s="4">
+        <v>29460758</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2016</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>2016</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>2017</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="G14" s="4">
+        <v>31588039</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="G15" s="4">
+        <v>31365854</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
+        <v>73</v>
+      </c>
+      <c r="E16">
+        <v>2018</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="G16" s="4">
+        <v>30332564</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>2018</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <v>2018</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>2018</v>
+      </c>
+      <c r="F19" t="s">
         <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>61</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
+        <v>88</v>
+      </c>
+      <c r="E20">
+        <v>2018</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="G20" s="4">
+        <v>30606844</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>2018</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="G21" s="4">
+        <v>30718881</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="E23">
+        <v>2019</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="G23" s="4">
+        <v>31554720</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
+        <v>64</v>
+      </c>
+      <c r="E24">
+        <v>2020</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G24" s="4">
+        <v>32977629</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>2020</v>
+      </c>
+      <c r="F25" t="s">
         <v>135</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
       </c>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>2021</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="G26" s="4">
+        <v>34634087</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>2021</v>
+      </c>
+      <c r="F27" t="s">
         <v>130</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" t="s">
-        <v>88</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" t="s">
-        <v>91</v>
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>2022</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="G28" s="4">
+        <v>36968239</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" t="s">
-        <v>95</v>
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>2022</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" t="s">
-        <v>45</v>
+        <v>91</v>
+      </c>
+      <c r="E30">
+        <v>2023</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="G30" s="4">
+        <v>37542071</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="E31">
+        <v>2023</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
         <v>103</v>
       </c>
-      <c r="C32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32">
+        <v>2023</v>
+      </c>
+      <c r="F32" t="s">
         <v>104</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" t="s">
-        <v>105</v>
       </c>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>2023</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="G33" s="4">
+        <v>38088796</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>2024</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="E35">
+        <v>2024</v>
       </c>
       <c r="F35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G35" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="G35" s="4">
+        <v>38826374</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" t="s">
-        <v>95</v>
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>2024</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>87</v>
-      </c>
-      <c r="B37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="G36" s="4">
+        <v>39551823</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G37" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G37">
-      <sortCondition ref="A1:A37"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
+++ b/Pubmed/Lassa/Lassa_pubmed_search_checked.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FE7446-C416-9848-A2A1-3203DAF06AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E2379-B639-6D4E-B623-336F1D247298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="500" windowWidth="17380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5480" yWindow="2040" windowWidth="17380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
   <si>
     <t>RefID</t>
   </si>
@@ -186,18 +186,6 @@
   </si>
   <si>
     <t>OM735968, OM735969, OM735970, OM735971, OM735972, OM735973, OM735974, OM735975, OM735976, OM735977, OM735978, OM735979, OM735980, OM735981, OM735982, OM735983, OM735984, OM735985, OM735986, OM735987, OM735988, OM735989, OM735990, OM735991, OM791219, OM791220, OM791221, OM791222, OM791225, OM791226, OM791227, OM791228, OM791229, OM791230, OM791231, OM791232</t>
-  </si>
-  <si>
-    <t>Biochemical characterization of the lassa virus l protein</t>
-  </si>
-  <si>
-    <t>Gunther S., Rosenthal M.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Department of Virology, Bernhard Nocht Institute for Tropical Medicine (BNITM), Bernhard-Nocht-Strasse 74, Hamburg 20359, Germany, Unpublished</t>
-  </si>
-  <si>
-    <t>MK044799</t>
   </si>
   <si>
     <t>Arenaviruses in southern african rodents</t>
@@ -856,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -899,7 +887,7 @@
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -920,16 +908,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E3">
         <v>2004</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -940,7 +928,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -972,7 +960,7 @@
         <v>2011</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -981,19 +969,19 @@
         <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>2013</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1002,19 +990,19 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>2014</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1023,19 +1011,19 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4">
         <v>25811712</v>
@@ -1049,7 +1037,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1081,7 +1069,7 @@
         <v>2016</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G10" s="4">
         <v>29460758</v>
@@ -1104,7 +1092,7 @@
         <v>2016</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1125,7 +1113,7 @@
         <v>2016</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1134,19 +1122,19 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>2017</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -1155,19 +1143,19 @@
         <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E14">
         <v>2018</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G14" s="4">
         <v>31588039</v>
@@ -1178,19 +1166,19 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>2018</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G15" s="4">
         <v>31365854</v>
@@ -1201,19 +1189,19 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>2018</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G16" s="4">
         <v>30332564</v>
@@ -1245,422 +1233,403 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>2018</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>2018</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30606844</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>2018</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4">
-        <v>30606844</v>
+        <v>30718881</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="4">
-        <v>30718881</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G22" s="4">
+        <v>31554720</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>2020</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23">
-        <v>2019</v>
-      </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
       <c r="G23" s="4">
-        <v>31554720</v>
+        <v>32977629</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>2020</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="4">
-        <v>32977629</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="G25" s="4">
+        <v>34634087</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>2021</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="4">
-        <v>34634087</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="G27" s="4">
+        <v>36968239</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>2022</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="4">
-        <v>36968239</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E29">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="G29" s="4">
+        <v>37542071</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>2023</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="G30" s="4">
-        <v>37542071</v>
+        <v>39928049</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <v>2023</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>2023</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="G32" s="4">
+        <v>38088796</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="4">
-        <v>38088796</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="E34">
         <v>2024</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="G34" s="4">
+        <v>38826374</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>2024</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G35" s="4">
-        <v>38826374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36">
-        <v>2024</v>
-      </c>
-      <c r="F36" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="4">
         <v>39551823</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>